--- a/data/vgp_database/Eastern_TMVB.xlsx
+++ b/data/vgp_database/Eastern_TMVB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yimingzhang/Github/Gallo_etal_2023_APWP_construction/data/vgp_database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61054100-346A-EF4B-8401-3C54E1A3350B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355034E9-090E-224F-866A-84201758BC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7060" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="122">
   <si>
     <t>Name:</t>
   </si>
@@ -402,120 +402,6 @@
   </si>
   <si>
     <t>10.1016/S0040-1951(99)00313-3</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-4</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-5</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-6</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-7</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-8</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-9</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-10</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-11</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-12</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-13</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-14</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-15</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-16</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-17</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-18</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-19</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-20</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-21</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-22</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-23</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-24</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-25</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-26</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-27</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-28</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-29</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-30</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-31</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-32</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-33</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-34</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-35</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-36</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-37</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-38</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-39</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-40</t>
-  </si>
-  <si>
-    <t>10.1016/S0040-1951(99)00313-41</t>
   </si>
 </sst>
 </file>
@@ -957,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ821"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X28" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11:AP49"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AP12" sqref="AP12:AP49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1995,8 +1881,9 @@
         <v>71</v>
       </c>
       <c r="AO12" s="3"/>
-      <c r="AP12" s="41" t="s">
-        <v>122</v>
+      <c r="AP12" s="41" t="str">
+        <f>AP11</f>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="13" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2093,8 +1980,9 @@
       </c>
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
-      <c r="AP13" s="41" t="s">
-        <v>123</v>
+      <c r="AP13" s="41" t="str">
+        <f t="shared" ref="AP13:AP49" si="0">AP12</f>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="14" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2191,8 +2079,9 @@
       </c>
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
-      <c r="AP14" s="41" t="s">
-        <v>124</v>
+      <c r="AP14" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="15" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2289,8 +2178,9 @@
       </c>
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
-      <c r="AP15" s="41" t="s">
-        <v>125</v>
+      <c r="AP15" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ15" s="25"/>
     </row>
@@ -2392,8 +2282,9 @@
         <v>71</v>
       </c>
       <c r="AO16" s="3"/>
-      <c r="AP16" s="41" t="s">
-        <v>126</v>
+      <c r="AP16" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="17" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2490,8 +2381,9 @@
       </c>
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
-      <c r="AP17" s="41" t="s">
-        <v>127</v>
+      <c r="AP17" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="18" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2588,8 +2480,9 @@
       </c>
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
-      <c r="AP18" s="41" t="s">
-        <v>128</v>
+      <c r="AP18" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="19" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2690,8 +2583,9 @@
         <v>80</v>
       </c>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="41" t="s">
-        <v>129</v>
+      <c r="AP19" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="20" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2792,8 +2686,9 @@
         <v>71</v>
       </c>
       <c r="AO20" s="3"/>
-      <c r="AP20" s="41" t="s">
-        <v>130</v>
+      <c r="AP20" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="21" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2890,8 +2785,9 @@
       </c>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
-      <c r="AP21" s="41" t="s">
-        <v>131</v>
+      <c r="AP21" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="22" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -2992,8 +2888,9 @@
         <v>71</v>
       </c>
       <c r="AO22" s="3"/>
-      <c r="AP22" s="41" t="s">
-        <v>132</v>
+      <c r="AP22" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="23" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -3090,8 +2987,9 @@
       </c>
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
-      <c r="AP23" s="41" t="s">
-        <v>133</v>
+      <c r="AP23" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="24" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3188,8 +3086,9 @@
       </c>
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
-      <c r="AP24" s="41" t="s">
-        <v>134</v>
+      <c r="AP24" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ24" s="25"/>
     </row>
@@ -3287,8 +3186,9 @@
       </c>
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
-      <c r="AP25" s="41" t="s">
-        <v>135</v>
+      <c r="AP25" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ25" s="25"/>
     </row>
@@ -3386,8 +3286,9 @@
       </c>
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
-      <c r="AP26" s="41" t="s">
-        <v>136</v>
+      <c r="AP26" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ26" s="25"/>
     </row>
@@ -3485,8 +3386,9 @@
       </c>
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
-      <c r="AP27" s="41" t="s">
-        <v>137</v>
+      <c r="AP27" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ27" s="25"/>
     </row>
@@ -3582,8 +3484,9 @@
       </c>
       <c r="AN28" s="14"/>
       <c r="AO28" s="14"/>
-      <c r="AP28" s="41" t="s">
-        <v>138</v>
+      <c r="AP28" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ28" s="25"/>
     </row>
@@ -3687,8 +3590,9 @@
         <v>71</v>
       </c>
       <c r="AO29" s="14"/>
-      <c r="AP29" s="41" t="s">
-        <v>139</v>
+      <c r="AP29" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ29" s="25"/>
     </row>
@@ -3790,8 +3694,9 @@
       </c>
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
-      <c r="AP30" s="41" t="s">
-        <v>140</v>
+      <c r="AP30" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ30" s="25"/>
     </row>
@@ -3891,8 +3796,9 @@
       </c>
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
-      <c r="AP31" s="41" t="s">
-        <v>141</v>
+      <c r="AP31" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
       <c r="AQ31" s="28"/>
     </row>
@@ -3992,8 +3898,9 @@
       </c>
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
-      <c r="AP32" s="41" t="s">
-        <v>142</v>
+      <c r="AP32" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="33" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4092,8 +3999,9 @@
       </c>
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
-      <c r="AP33" s="41" t="s">
-        <v>143</v>
+      <c r="AP33" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="34" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4192,8 +4100,9 @@
       </c>
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
-      <c r="AP34" s="41" t="s">
-        <v>144</v>
+      <c r="AP34" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="35" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4292,8 +4201,9 @@
       </c>
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
-      <c r="AP35" s="41" t="s">
-        <v>145</v>
+      <c r="AP35" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="36" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4392,8 +4302,9 @@
       </c>
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
-      <c r="AP36" s="41" t="s">
-        <v>146</v>
+      <c r="AP36" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="37" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4492,8 +4403,9 @@
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="41" t="s">
-        <v>147</v>
+      <c r="AP37" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="38" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4592,8 +4504,9 @@
         <v>80</v>
       </c>
       <c r="AO38" s="3"/>
-      <c r="AP38" s="41" t="s">
-        <v>148</v>
+      <c r="AP38" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="39" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4692,8 +4605,9 @@
       </c>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
-      <c r="AP39" s="41" t="s">
-        <v>149</v>
+      <c r="AP39" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="40" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4792,8 +4706,9 @@
       </c>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
-      <c r="AP40" s="41" t="s">
-        <v>150</v>
+      <c r="AP40" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="41" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4892,8 +4807,9 @@
       </c>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
-      <c r="AP41" s="41" t="s">
-        <v>151</v>
+      <c r="AP41" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="42" spans="1:42" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4992,8 +4908,9 @@
       </c>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
-      <c r="AP42" s="41" t="s">
-        <v>152</v>
+      <c r="AP42" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="43" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5092,8 +5009,9 @@
       </c>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
-      <c r="AP43" s="41" t="s">
-        <v>153</v>
+      <c r="AP43" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="44" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5192,8 +5110,9 @@
       </c>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
-      <c r="AP44" s="41" t="s">
-        <v>154</v>
+      <c r="AP44" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="45" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5290,8 +5209,9 @@
       </c>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
-      <c r="AP45" s="41" t="s">
-        <v>155</v>
+      <c r="AP45" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="46" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5388,8 +5308,9 @@
       </c>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
-      <c r="AP46" s="41" t="s">
-        <v>156</v>
+      <c r="AP46" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="47" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5486,8 +5407,9 @@
       </c>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
-      <c r="AP47" s="41" t="s">
-        <v>157</v>
+      <c r="AP47" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="48" spans="1:42" ht="16" x14ac:dyDescent="0.2">
@@ -5586,8 +5508,9 @@
       </c>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
-      <c r="AP48" s="41" t="s">
-        <v>158</v>
+      <c r="AP48" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="49" spans="1:43" ht="16" x14ac:dyDescent="0.2">
@@ -5686,8 +5609,9 @@
       </c>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
-      <c r="AP49" s="41" t="s">
-        <v>159</v>
+      <c r="AP49" s="41" t="str">
+        <f t="shared" si="0"/>
+        <v>10.1016/S0040-1951(99)00313-3</v>
       </c>
     </row>
     <row r="50" spans="1:43" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -40408,7 +40332,6 @@
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="AP11" r:id="rId1" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(99)00313-3" xr:uid="{5050E4C4-B856-7F4C-B6FF-15754AD833EC}"/>
-    <hyperlink ref="AP12:AP49" r:id="rId2" tooltip="Persistent link using digital object identifier" display="https://doi.org/10.1016/S0040-1951(99)00313-3" xr:uid="{C4F1A66A-299D-B44D-A120-143EC58D2E1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
